--- a/DataFiles/fileSizes.xlsx
+++ b/DataFiles/fileSizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cfg-and-dot-lab-sevsev73\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC23F7C-C6A1-4140-99EE-007872E24825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98150E89-19C6-492E-AC6C-3FCEFFC0C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="765" windowWidth="21600" windowHeight="12885"/>
   </bookViews>
